--- a/01_Bundestagswahl_2025/data/wide_format.xlsx
+++ b/01_Bundestagswahl_2025/data/wide_format.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">these_nr</t>
   </si>
@@ -20,6 +20,9 @@
     <t xml:space="preserve">these_titel</t>
   </si>
   <si>
+    <t xml:space="preserve">these_kurzform</t>
+  </si>
+  <si>
     <t xml:space="preserve">these_these</t>
   </si>
   <si>
@@ -110,226 +113,340 @@
     <t xml:space="preserve">Unterstützung der Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">Militärhilfe für Ukraine fortsetzen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutschland soll die Ukraine weiterhin militärisch unterstützen.</t>
   </si>
   <si>
     <t xml:space="preserve">Erneuerbare Energien</t>
   </si>
   <si>
+    <t xml:space="preserve">Erneuerbare Energien finanziell fördern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der Ausbau erneuerbarer Energien soll weiterhin vom Staat finanziell gefördert werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Streichung des Bürgergelds</t>
   </si>
   <si>
+    <t xml:space="preserve">Bürgergeld bei Ablehnung Stellenangebot streichen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Das Bürgergeld soll denjenigen gestrichen werden, die wiederholt Stellenangebote ablehnen.</t>
   </si>
   <si>
     <t xml:space="preserve">Tempolimit auf Autobahnen</t>
   </si>
   <si>
+    <t xml:space="preserve">Tempolimit auf Autobahnen einführen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Auf allen Autobahnen soll ein generelles Tempolimit gelten.</t>
   </si>
   <si>
     <t xml:space="preserve">Abweisung Asylsuchender</t>
   </si>
   <si>
+    <t xml:space="preserve">aus EU-Staat eingereiste Asylsuchende abweisen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asylsuchende, die über einen anderen EU-Staat eingereist sind, sollen an den deutschen Grenzen abgewiesen werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Begrenzung der Mietpreise</t>
   </si>
   <si>
+    <t xml:space="preserve">Mietpreisbegrenzung beibehalten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bei Neuvermietungen sollen die Mietpreise weiterhin gesetzlich begrenzt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Automatisierte Gesichtserkennung</t>
   </si>
   <si>
+    <t xml:space="preserve">Gesichtserkennung an Bahnhöfen erlauben</t>
+  </si>
+  <si>
     <t xml:space="preserve">An Bahnhöfen soll die Bundespolizei Software zur automatisierten Gesichtserkennung einsetzen dürfen.</t>
   </si>
   <si>
     <t xml:space="preserve">Energieintensive Unternehmen</t>
   </si>
   <si>
+    <t xml:space="preserve">Stromkosten-Ausgleich für Unternehmen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Energieintensive Unternehmen sollen vom Staat einen finanziellen Ausgleich für ihre Stromkosten erhalten.</t>
   </si>
   <si>
     <t xml:space="preserve">Rente nach 40 Beitragsjahren</t>
   </si>
   <si>
+    <t xml:space="preserve">Rentenabschläge nach 40 Jahren abschaffen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Beschäftigten sollen bereits nach 40 Beitragsjahren ohne Abschläge in Rente gehen können.</t>
   </si>
   <si>
     <t xml:space="preserve">Grundgesetz</t>
   </si>
   <si>
+    <t xml:space="preserve">„Verantwortung vor Gott“ im GG beibehalten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Im einleitenden Satz des Grundgesetzes soll weiterhin die Formulierung „Verantwortung vor Gott“ stehen.</t>
   </si>
   <si>
     <t xml:space="preserve">Anwerbung von Fachkräften</t>
   </si>
   <si>
+    <t xml:space="preserve">Fachkräfteanwerbung aus Ausland fördern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutschland soll weiterhin die Anwerbung von Fachkräften aus dem Ausland fördern.</t>
   </si>
   <si>
     <t xml:space="preserve">Nutzung der Kernenergie</t>
   </si>
   <si>
+    <t xml:space="preserve">Kernenergie zur Stromerzeugung nutzen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für die Stromerzeugung soll Deutschland wieder Kernenergie nutzen.</t>
   </si>
   <si>
     <t xml:space="preserve">Anhebung des Spitzensteuersatzes</t>
   </si>
   <si>
+    <t xml:space="preserve">Spitzensteuersatz anheben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bei der Besteuerung von Einkommen soll der Spitzensteuersatz angehoben werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Kompetenzen in der Schulpolitik</t>
   </si>
   <si>
+    <t xml:space="preserve">Schulpolitik-Befugnisse für Bund stärken</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der Bund soll mehr Kompetenzen in der Schulpolitik erhalten.</t>
   </si>
   <si>
     <t xml:space="preserve">Rüstungsexporte nach Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rüstungsexporte nach Israel erlauben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aus Deutschland sollen weiterhin Rüstungsgüter nach Israel exportiert werden dürfen.</t>
   </si>
   <si>
     <t xml:space="preserve">Krankenkassen</t>
   </si>
   <si>
+    <t xml:space="preserve">Gesetzliche Krankenversicherungspflicht für alle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alle Bürgerinnen und Bürger sollen in gesetzlichen Krankenkassen versichert sein müssen.</t>
   </si>
   <si>
     <t xml:space="preserve">Abschaffung der Frauenquote</t>
   </si>
   <si>
+    <t xml:space="preserve">Frauenquote in Vorständen abschaffen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die gesetzliche Frauenquote in Vorständen und Aufsichtsräten börsennotierter Unternehmen soll abgeschafft werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Ökologische Landwirtschaft</t>
   </si>
   <si>
+    <t xml:space="preserve">Ökologische Landwirtschaft stärker fördern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ökologische Landwirtschaft soll stärker gefördert werden als konventionelle Landwirtschaft.</t>
   </si>
   <si>
     <t xml:space="preserve">Projekte gegen Rechtsextremismus</t>
   </si>
   <si>
+    <t xml:space="preserve">Rechtsextremismus-Projekte verstärkt fördern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der Bund soll Projekte gegen Rechtsextremismus verstärkt fördern.</t>
   </si>
   <si>
     <t xml:space="preserve">Kontrolle von Zulieferern</t>
   </si>
   <si>
+    <t xml:space="preserve">Menschenrechtskontrolle durch Unternehmen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unternehmen sollen weiterhin die Einhaltung der Menschenrechte und des Umweltschutzes bei allen Zulieferern kontrollieren müssen.</t>
   </si>
   <si>
     <t xml:space="preserve">Elternabhängiges BAföG</t>
   </si>
   <si>
+    <t xml:space="preserve">BAföG einkommensabhängig belassen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Ausbildungsförderung BAföG soll weiterhin abhängig vom Einkommen der Eltern gezahlt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Schuldenbremse</t>
   </si>
   <si>
+    <t xml:space="preserve">Schuldenbremse im Grundgesetz beibehalten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Schuldenbremse im Grundgesetz soll beibehalten werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Arbeitserlaubnis für Asylsuchende</t>
   </si>
   <si>
+    <t xml:space="preserve">Arbeitserlaubnis für Asylsuchende sofort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asylsuchende sollen in Deutschland sofort nach ihrer Antragstellung eine Arbeitserlaubnis erhalten.</t>
   </si>
   <si>
     <t xml:space="preserve">Verwerfen der Klimaziele</t>
   </si>
   <si>
+    <t xml:space="preserve">Klimaneutralitätsziel aufgeben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutschland soll das Ziel verwerfen, klimaneutral zu werden.</t>
   </si>
   <si>
     <t xml:space="preserve">35-Stunden-Woche</t>
   </si>
   <si>
+    <t xml:space="preserve">35-Stunden-Woche gesetzlich einführen</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Deutschland soll die 35-Stunden-Woche als gesetzliche Regelarbeitszeit für alle Beschäftigten festgelegt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Schwangerschaftsabbruch nach Beratung</t>
   </si>
   <si>
+    <t xml:space="preserve">Beratungspflicht vor Schwangerschaftsabbruch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwangerschaftsabbrüche sollen in den ersten drei Monaten weiterhin nur nach Beratung straffrei sein.</t>
   </si>
   <si>
     <t xml:space="preserve">Nationale Währung</t>
   </si>
   <si>
+    <t xml:space="preserve">Euro durch nationale Währung ersetzen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Der Euro soll in Deutschland durch eine nationale Währung ersetzt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Schiene vor Straße</t>
   </si>
   <si>
+    <t xml:space="preserve">Schienenverkehr vor Straßenverkehr priorisieren</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beim Ausbau der Verkehrsinfrastruktur soll die Schiene Vorrang vor der Straße haben.</t>
   </si>
   <si>
     <t xml:space="preserve">Ehrenamt</t>
   </si>
   <si>
+    <t xml:space="preserve">Ehrenamtliche Tätigkeiten für Rente anrechnen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ehrenamtliche Tätigkeiten sollen auf die zukünftige Rente angerechnet werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Umlegung der Grundsteuer</t>
   </si>
   <si>
+    <t xml:space="preserve">Grundsteuer auf Mieter umlegen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Die Grundsteuer soll weiterhin auf Mieterinnen und Mieter umgelegt werden dürfen.</t>
   </si>
   <si>
     <t xml:space="preserve">Einschränkung des Streikrechts</t>
   </si>
   <si>
+    <t xml:space="preserve">Streikrecht in kritischen Bereichen einschränken</t>
+  </si>
+  <si>
     <t xml:space="preserve">Das Streikrecht für Beschäftigte in Unternehmen der kritischen Infrastruktur soll gesetzlich eingeschränkt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Volksentscheide</t>
   </si>
   <si>
+    <t xml:space="preserve">Volksentscheide auf Bundesebene ermöglichen</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Deutschland soll es auf Bundesebene Volksentscheide geben können.</t>
   </si>
   <si>
     <t xml:space="preserve">Strafrecht für unter 14-Jährige</t>
   </si>
   <si>
+    <t xml:space="preserve">Strafbarkeit ab 14 einführen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unter 14-Jährige sollen strafrechtlich belangt werden können.</t>
   </si>
   <si>
     <t xml:space="preserve">Abschaffung von Zöllen</t>
   </si>
   <si>
+    <t xml:space="preserve">EU-Zölle auf E-Autos abschaffen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutschland soll sich für die Abschaffung der erhöhten EU-Zölle auf chinesische Elektroautos einsetzen.</t>
   </si>
   <si>
     <t xml:space="preserve">Zweite Staatsbürgerschaft</t>
   </si>
   <si>
+    <t xml:space="preserve">Doppelstaatsbürgerschaft weiterhin ermöglichen</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Deutschland soll es weiterhin generell möglich sein, neben der deutschen eine zweite Staatsbürgerschaft zu haben.</t>
   </si>
   <si>
     <t xml:space="preserve">Soziales Pflichtjahr</t>
   </si>
   <si>
+    <t xml:space="preserve">Soziales Pflichtjahr für Jugendliche einführen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Für junge Erwachsene soll ein soziales Pflichtjahr eingeführt werden.</t>
   </si>
   <si>
     <t xml:space="preserve">Fossile Brennstoffe</t>
   </si>
   <si>
+    <t xml:space="preserve">Fossile Heizungen weiterhin erlauben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neue Heizungen sollen auch zukünftig vollständig mit fossilen Brennstoffen (z. B. Gas oder Öl) betrieben werden dürfen.</t>
   </si>
   <si>
     <t xml:space="preserve">Erhöhung des Mindestlohns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindestlohn auf 15 Euro erhöhen</t>
   </si>
   <si>
     <t xml:space="preserve">Der gesetzliche Mindestlohn soll spätestens 2026 auf 15 Euro erhöht werden.</t>
@@ -758,19 +875,22 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -782,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>-1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -797,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -815,42 +935,45 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>-1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>-1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>-1</v>
       </c>
       <c r="AE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -859,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -874,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>-1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -892,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -910,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>-1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -934,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
         <v>-1</v>
@@ -943,9 +1066,12 @@
         <v>-1</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -954,49 +1080,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>-1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>-1</v>
@@ -1005,42 +1131,45 @@
         <v>-1</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
         <v>-1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,70 +1178,70 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>-1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5" t="n">
         <v>1</v>
@@ -1124,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>-1</v>
@@ -1133,9 +1262,12 @@
         <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1144,43 +1276,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-1</v>
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>-1</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>-1</v>
@@ -1192,34 +1324,34 @@
         <v>-1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y6" t="n">
         <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
@@ -1228,9 +1360,12 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1239,13 +1374,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1254,22 +1389,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>-1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1290,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>-1</v>
@@ -1302,7 +1437,7 @@
         <v>-1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
@@ -1317,15 +1452,18 @@
         <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1334,28 +1472,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-1</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>-1</v>
@@ -1385,10 +1523,10 @@
         <v>-1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>-1</v>
@@ -1412,15 +1550,18 @@
         <v>-1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1429,13 +1570,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1444,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>-1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1459,28 +1600,28 @@
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>-1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1489,25 +1630,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
         <v>-1</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>-1</v>
@@ -1516,6 +1657,9 @@
         <v>-1</v>
       </c>
       <c r="AE9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1524,13 +1668,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-1</v>
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>-1</v>
@@ -1545,7 +1689,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1572,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1581,36 +1725,39 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>-1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
         <v>-1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1619,93 +1766,96 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>-1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>-1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>-1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11" t="n">
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,13 +1864,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1732,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1747,10 +1897,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -1762,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>-1</v>
@@ -1780,27 +1930,30 @@
         <v>-1</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,28 +1962,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-1</v>
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>-1</v>
@@ -1842,10 +1995,10 @@
         <v>-1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>-1</v>
@@ -1860,10 +2013,10 @@
         <v>-1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
@@ -1872,30 +2025,33 @@
         <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
         <v>-1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>-1</v>
       </c>
       <c r="AE13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,43 +2060,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>-1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -1955,25 +2111,25 @@
         <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>-1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z14" t="n">
         <v>1</v>
@@ -1982,15 +2138,18 @@
         <v>1</v>
       </c>
       <c r="AB14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1999,43 +2158,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2047,45 +2206,48 @@
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>-1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
         <v>-1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2094,13 +2256,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -2112,75 +2274,78 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>-1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>-1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>-1</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
         <v>-1</v>
       </c>
       <c r="AE16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,28 +2354,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
       </c>
       <c r="E17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -2240,42 +2405,45 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>-1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
         <v>-1</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2284,13 +2452,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-1</v>
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>-1</v>
@@ -2299,46 +2467,46 @@
         <v>-1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>-1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
@@ -2347,16 +2515,16 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>1</v>
@@ -2365,12 +2533,15 @@
         <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
         <v>-1</v>
       </c>
       <c r="AE18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,37 +2550,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
       </c>
       <c r="E19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>-1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2430,19 +2601,19 @@
         <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X19" t="n">
         <v>1</v>
@@ -2454,18 +2625,21 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2474,13 +2648,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -2492,10 +2666,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -2507,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O20" t="n">
         <v>1</v>
@@ -2525,42 +2699,45 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>-1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z20" t="n">
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
         <v>-1</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
       </c>
       <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2569,43 +2746,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
       </c>
       <c r="E21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>-1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2620,42 +2797,45 @@
         <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>-1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21" t="n">
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
         <v>-1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2664,13 +2844,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -2679,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>-1</v>
@@ -2697,10 +2877,10 @@
         <v>-1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>-1</v>
@@ -2715,31 +2895,31 @@
         <v>-1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>-1</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
         <v>-1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB22" t="n">
         <v>1</v>
@@ -2748,9 +2928,12 @@
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF22" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2759,49 +2942,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-1</v>
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>-1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>-1</v>
@@ -2810,25 +2993,25 @@
         <v>-1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
         <v>-1</v>
@@ -2837,15 +3020,18 @@
         <v>-1</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,28 +3040,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2905,10 +3091,10 @@
         <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>1</v>
@@ -2935,12 +3121,15 @@
         <v>1</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,13 +3138,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1</v>
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
       </c>
       <c r="E25" t="n">
         <v>-1</v>
@@ -2967,10 +3156,10 @@
         <v>-1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>-1</v>
@@ -2982,10 +3171,10 @@
         <v>-1</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>-1</v>
@@ -3000,42 +3189,45 @@
         <v>-1</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>-1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>-1</v>
       </c>
       <c r="AE25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,16 +3236,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>-1</v>
@@ -3065,72 +3257,75 @@
         <v>-1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>-1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R26" t="n">
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>-1</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
         <v>-1</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26" t="n">
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3139,93 +3334,96 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-1</v>
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>-1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>-1</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
         <v>-1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>-1</v>
       </c>
       <c r="AE27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,13 +3432,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-1</v>
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
       </c>
       <c r="E28" t="n">
         <v>-1</v>
@@ -3252,10 +3450,10 @@
         <v>-1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>-1</v>
@@ -3267,10 +3465,10 @@
         <v>-1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>-1</v>
@@ -3285,16 +3483,16 @@
         <v>-1</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3303,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
         <v>-1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
         <v>-1</v>
@@ -3321,6 +3519,9 @@
         <v>-1</v>
       </c>
       <c r="AE28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF28" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3329,37 +3530,37 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -3368,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -3380,42 +3581,45 @@
         <v>1</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z29" t="n">
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
         <v>-1</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
       </c>
       <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3424,31 +3628,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
       </c>
       <c r="E30" t="n">
         <v>-1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>-1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -3475,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -3490,27 +3694,30 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="n">
         <v>-1</v>
       </c>
       <c r="Z30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA30" t="n">
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3519,43 +3726,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-1</v>
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>-1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>-1</v>
@@ -3567,45 +3774,48 @@
         <v>-1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y31" t="n">
         <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB31" t="n">
         <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>-1</v>
       </c>
       <c r="AE31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,37 +3824,37 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-1</v>
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>-1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>-1</v>
@@ -3665,19 +3875,19 @@
         <v>-1</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>-1</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>-1</v>
@@ -3692,15 +3902,18 @@
         <v>-1</v>
       </c>
       <c r="AB32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="n">
         <v>-1</v>
       </c>
       <c r="AE32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,16 +3922,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>127</v>
       </c>
       <c r="E33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>-1</v>
@@ -3727,16 +3940,16 @@
         <v>-1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -3754,31 +3967,31 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
         <v>1</v>
@@ -3796,6 +4009,9 @@
         <v>1</v>
       </c>
       <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,43 +4020,43 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-1</v>
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>-1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>-1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>-1</v>
@@ -3852,45 +4068,48 @@
         <v>-1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
         <v>-1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
         <v>-1</v>
       </c>
       <c r="AB34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
         <v>-1</v>
       </c>
       <c r="AE34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF34" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3899,19 +4118,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3923,25 +4142,25 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>-1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>-1</v>
@@ -3950,42 +4169,45 @@
         <v>-1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>-1</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
         <v>-1</v>
       </c>
       <c r="Z35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA35" t="n">
         <v>1</v>
       </c>
       <c r="AB35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD35" t="n">
         <v>1</v>
       </c>
       <c r="AE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3994,43 +4216,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
       </c>
       <c r="E36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>1</v>
@@ -4045,25 +4267,25 @@
         <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>-1</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
@@ -4072,15 +4294,18 @@
         <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
       </c>
       <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4089,46 +4314,46 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-1</v>
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>-1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>-1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>-1</v>
@@ -4137,45 +4362,48 @@
         <v>-1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
         <v>-1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y37" t="n">
         <v>1</v>
       </c>
       <c r="Z37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4184,49 +4412,49 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-1</v>
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>-1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>-1</v>
@@ -4235,28 +4463,28 @@
         <v>-1</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
       </c>
       <c r="W38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38" t="n">
         <v>1</v>
@@ -4268,9 +4496,12 @@
         <v>1</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AF38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,43 +4510,43 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>1</v>
@@ -4330,42 +4561,45 @@
         <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>-1</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X39" t="n">
         <v>1</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>1</v>
       </c>
       <c r="AB39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD39" t="n">
         <v>1</v>
       </c>
       <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/01_Bundestagswahl_2025/data/wide_format.xlsx
+++ b/01_Bundestagswahl_2025/data/wide_format.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">FREIE WÄHLER</t>
   </si>
   <si>
-    <t xml:space="preserve">Trschtzprt</t>
+    <t xml:space="preserve">Tierschutzpartei</t>
   </si>
   <si>
     <t xml:space="preserve">dieBasis</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Die PARTEI</t>
   </si>
   <si>
-    <t xml:space="preserve">DGrchtg-TT</t>
+    <t xml:space="preserve">Die Gerechtigkeitspartei - Team Todenhöfer</t>
   </si>
   <si>
     <t xml:space="preserve">PIRATEN</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">ÖDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Vrjngngsfr</t>
+    <t xml:space="preserve">Verjüngungsforschung</t>
   </si>
   <si>
     <t xml:space="preserve">PdH</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">MLPD</t>
   </si>
   <si>
-    <t xml:space="preserve">MENSCHLICW</t>
+    <t xml:space="preserve">MENSCHLICHE WELT</t>
   </si>
   <si>
     <t xml:space="preserve">PdF</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">BüSo</t>
   </si>
   <si>
-    <t xml:space="preserve">BÜNDNISDEU</t>
+    <t xml:space="preserve">BÜNDNIS DEUTSCHLAND</t>
   </si>
   <si>
     <t xml:space="preserve">BSW</t>
